--- a/Dokumentation/Vorbetrachtung_Übersichten.xlsx
+++ b/Dokumentation/Vorbetrachtung_Übersichten.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Funktionen" sheetId="1" r:id="rId1"/>
@@ -1007,11 +1007,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1042,7 +1041,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="8" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>32</v>
       </c>
@@ -1059,7 +1058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>35</v>
       </c>
@@ -1079,7 +1078,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>124</v>
       </c>
@@ -1099,7 +1098,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>126</v>
       </c>
@@ -1119,7 +1118,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>40</v>
       </c>
@@ -1133,7 +1132,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>137</v>
       </c>
@@ -1167,7 +1166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>133</v>
       </c>
@@ -1187,7 +1186,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>132</v>
       </c>
@@ -1201,7 +1200,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>49</v>
       </c>
@@ -1215,7 +1214,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>52</v>
       </c>
@@ -1226,7 +1225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>134</v>
       </c>
@@ -1240,7 +1239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>135</v>
       </c>
@@ -1251,7 +1250,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>138</v>
       </c>
@@ -1263,13 +1262,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F15">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Dokumenation"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:F15"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1460,7 +1453,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:A14"/>
     </sheetView>
   </sheetViews>

--- a/Dokumentation/Vorbetrachtung_Übersichten.xlsx
+++ b/Dokumentation/Vorbetrachtung_Übersichten.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Funktionen" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Funktionen!$A$1:$F$7</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Ist-Analyse'!$A$1:$C$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Ist-Analyse'!$A$1:$C$52</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Soll-Analyse'!$A$1:$F$15</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="171">
   <si>
     <t>Funktion</t>
   </si>
@@ -211,84 +211,31 @@
     <t>Moritz Karsten</t>
   </si>
   <si>
-    <t>*  Zwei Jahre Projektansprechpartner Messe Berlin
-*  Application Management</t>
-  </si>
-  <si>
     <t>Huong Dang</t>
   </si>
   <si>
-    <t>* Zwei Jahre Vertrieb
-* Tools LaTex
-* Grundlagen VBA</t>
-  </si>
-  <si>
     <t>Markus Hube</t>
   </si>
   <si>
-    <t>*    Zwei Jahre PMO der operational services
-*    Zwei Jahre Programmiererfahrung (VBA)
-*   Bereits Vorarbeit zum Thema geleistet</t>
-  </si>
-  <si>
     <t>Annika Köstler</t>
   </si>
   <si>
-    <t xml:space="preserve">* Zwei Jahre Controlling
-* Tools Latex
-*Grundkenntnisse VBA
-*Protokollierung von Meetings </t>
-  </si>
-  <si>
     <t>Michael Hein</t>
   </si>
   <si>
-    <t>* Zwei Jahre Applikations Administration
-* Java Erfahrung
-*VBA Erfahrung
-*Skript Programmierung</t>
-  </si>
-  <si>
     <t>Moritz Schaub</t>
   </si>
   <si>
-    <t xml:space="preserve">* 2 Jahre Co-Product Owner in iOS und Android Messaging Produkt in AGILER Entwicklung (internationales, crossfunktionales Team)
-* Erstellung von komplexen Prototypen mit Proto.io auf Basis von HTML5
-* Vorbereitung, Durchführung von Design Thinking Workshops, Kundeninterviews mit Zielgruppen (anhand von Proto.io) , A/B Testing, Designstudien
-* Stakeholder Management 
-</t>
-  </si>
-  <si>
     <t>Eric Sorgalla</t>
   </si>
   <si>
-    <t>*Grundkenntnisse (Java, C/C++,Javascript,HTML/CSS,VBA,SQL)
-*1 Jahr Projektleitung ISIPT (nur kaufmännische Verantwortung)</t>
-  </si>
-  <si>
     <t>Jannis Grohs</t>
   </si>
   <si>
-    <t>*Datenbanken (MYSQL, Apex)
-*Programmiererfahrung (VBA, JAVA, Apex)
-*Projektmanagement
-*Design + Marketingtechniken</t>
-  </si>
-  <si>
     <t>Victor Fuchs</t>
   </si>
   <si>
-    <t>*gute Excelkenntnisse
-*gute Kenntnisse RW/C</t>
-  </si>
-  <si>
     <t>Thomas Elias</t>
-  </si>
-  <si>
-    <t>* gute Kenntnisse in Projektkoordination
-* Anforderungen und Arbeitspakete definieren
-* Erfahrungen Customizing von Dokumenten-Layouts
-* Kommunikation zwischen versch. Abteilungen zum Transparent-Machen der Informationen</t>
   </si>
   <si>
     <t>Team dementsprechend</t>
@@ -316,24 +263,12 @@
     <t>Durch seine Erfahrung im Bereich Prozessablauf und Konzeptentwicklung wird Moritz Karsten bei der Gruppe Design arbeiten.</t>
   </si>
   <si>
-    <t>Aufgrund der regelmäßigen Quality Check Aufgaben im Betrieb arbeitet sie in der Gruppe Dokumentation.</t>
-  </si>
-  <si>
     <t>Da Markus Hube bereits zum Thema EinkaufsApp Vorarbeit geleistet und Erfahrung im Projektmanagement gesammelt hat, übernimmt er die Position des Projektleiters.</t>
   </si>
   <si>
     <t>Annika Köstler wird aufgrund ihrer Kompetenzen im Bereich Protokollierung in der Gruppe Dokumentation arbeiten.</t>
   </si>
   <si>
-    <t>Durch seine langjährige Programmiererfahrung wird er bei den Entwicklern tätig sein.</t>
-  </si>
-  <si>
-    <t>Da er Vorkenntnisse im Bereich Prototyperstellung von Apps hat, wird Moritz Schaub für das visuelle Design zuständig sein.</t>
-  </si>
-  <si>
-    <t>Eric Sorgalla wird aufgrund seiner Programmiererfahrung bei den Entwicklern arbeiten</t>
-  </si>
-  <si>
     <t>Jannis Grohs wird aufgrund seines Know-Hows für das kontinuierliche Quality Check der Entwicklung und Designs zuständig sein.</t>
   </si>
   <si>
@@ -491,6 +426,138 @@
   </si>
   <si>
     <t>Betriebssystem und Tools für die Softwareentwicklung, Hosting?</t>
+  </si>
+  <si>
+    <t>Tools Latex</t>
+  </si>
+  <si>
+    <t>Grundkenntnisse VBA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protokollierung von Meetings </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Zwei Jahre Controlling
+</t>
+  </si>
+  <si>
+    <t>1 Jahr Projektleitung ISIPT (nur kaufmännische Verantwortung)</t>
+  </si>
+  <si>
+    <t>Grundkenntnisse (Java, C/C++,Javascript,HTML/CSS,VBA,SQL)</t>
+  </si>
+  <si>
+    <t>Zwei Jahre Vertrieb</t>
+  </si>
+  <si>
+    <t>Tools LaTex</t>
+  </si>
+  <si>
+    <t>Grundlagen VBA</t>
+  </si>
+  <si>
+    <t>Datenbanken (MYSQL, Apex)</t>
+  </si>
+  <si>
+    <t>Programmiererfahrung (VBA, JAVA, Apex)</t>
+  </si>
+  <si>
+    <t>Projektmanagement</t>
+  </si>
+  <si>
+    <t>Design + Marketingtechniken</t>
+  </si>
+  <si>
+    <t>Zwei Jahre Programmiererfahrung (VBA)</t>
+  </si>
+  <si>
+    <t>Bereits Vorarbeit zum Projekt geleistet</t>
+  </si>
+  <si>
+    <t>Zwei Jahre PMO der operational services</t>
+  </si>
+  <si>
+    <t>Eric Sorgalla wird aufgrund seiner Programmier- und Projektmanagementerfahrung das Team Entwicklung leiten.</t>
+  </si>
+  <si>
+    <t>Aufgrund der regelmäßigen Quality Check Aufgaben im Betrieb arbeitet Huong Dang in der Gruppe Dokumentation.</t>
+  </si>
+  <si>
+    <t>Java Erfahrung</t>
+  </si>
+  <si>
+    <t>VBA Erfahrung</t>
+  </si>
+  <si>
+    <t>Skript Programmierung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zwei Jahre Applikations Administration
+</t>
+  </si>
+  <si>
+    <t>Durch die langjährige Programmiererfahrung wird Michal Hein bei den Entwicklern tätig sein.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zwei Jahre Projektansprechpartner Messe Berlin
+</t>
+  </si>
+  <si>
+    <t>Application Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Erstellung von komplexen Prototypen mit Proto.io auf Basis von HTML5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2 Jahre Co-Product Owner in iOS und Android Messaging Produkt in AGILER Entwicklung</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Vorbereitung, Durchführung von Design Thinking Workshops, Designstudien</t>
+  </si>
+  <si>
+    <t>Da Vorkenntnisse im Bereich Prototyperstellung von Apps bestehen, wird Moritz Schaub für das visuelle Design zuständig sein.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> gute Kenntnisse in Projektkoordination</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Anforderungen und Arbeitspakete definieren</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Erfahrungen Customizing von Dokumenten-Layouts</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kommunikation zwischen versch. Abteilungen zum Transparent-Machen der Informationen</t>
+  </si>
+  <si>
+    <t>gute Excelkenntnisse</t>
+  </si>
+  <si>
+    <t>gute Kenntnisse RW/C</t>
+  </si>
+  <si>
+    <t>1 Jahr T-Systems, Expert Services</t>
+  </si>
+  <si>
+    <t>1 Jahr T-Systems, Digital Division</t>
+  </si>
+  <si>
+    <t>Programmiererfahrung (Javascript, HTML, CSS, C#)</t>
+  </si>
+  <si>
+    <t>Frameworks: Node.JS, Express.JS, Ionic</t>
+  </si>
+  <si>
+    <t>Sebastian Kiepsch wird wegen seiner ausgeprägten Programmiererfahrung bei der Entwicklung tätig sein.</t>
+  </si>
+  <si>
+    <t>Application Management bei T-Systems BTG</t>
+  </si>
+  <si>
+    <t>Benutzeradministration im SAP</t>
+  </si>
+  <si>
+    <t>Florian Graupeter wird bei den Designern im logischen Design mitwirken.</t>
   </si>
 </sst>
 </file>
@@ -544,7 +611,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -558,9 +625,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -570,6 +634,21 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1009,7 +1088,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1021,120 +1100,120 @@
     <col min="4" max="4" width="57.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:10" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="7">
         <v>1</v>
       </c>
-      <c r="J3" s="8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="B4" s="8" t="s">
+      <c r="J3" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="D4" s="8" t="s">
+      <c r="C4" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E4" s="7">
+        <v>1</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="E4" s="8">
+    </row>
+    <row r="5" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="7">
         <v>1</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="B5" s="8" t="s">
+      <c r="F5" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="8">
-        <v>1</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="B7" t="s">
         <v>42</v>
@@ -1151,13 +1230,13 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="B8" t="s">
         <v>46</v>
       </c>
       <c r="C8" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="D8" t="s">
         <v>47</v>
@@ -1166,35 +1245,35 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B9" s="8" t="s">
+    <row r="9" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="E9" s="8">
+      <c r="C9" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E9" s="7">
         <v>1</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="7" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="B10" t="s">
         <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1225,40 +1304,40 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B13" s="8" t="s">
+    <row r="13" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="E13" s="8">
+      <c r="D13" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E13" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="B14" s="8" t="s">
+    <row r="14" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>127</v>
+      <c r="C14" s="7" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="B15" t="s">
         <v>31</v>
       </c>
       <c r="D15" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -1282,165 +1361,165 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="B2" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" t="s">
         <v>101</v>
-      </c>
-      <c r="B3" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="B4" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="B5" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="B6" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="B7" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="B8" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="B9" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="B11" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C11" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="B18" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="B19" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>91</v>
+      </c>
+      <c r="B20" t="s">
         <v>105</v>
-      </c>
-      <c r="B20" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="B22" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="B23" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="B24" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1450,216 +1529,418 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A14"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="37.85546875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="13" t="s">
         <v>54</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="9"/>
+      <c r="B3" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" s="10"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="9"/>
+      <c r="B4" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C4" s="10"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="9"/>
+      <c r="B5" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C5" s="10"/>
+    </row>
+    <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="9"/>
+      <c r="B7" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C7" s="12"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9"/>
+      <c r="B9" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9" s="12"/>
+    </row>
+    <row r="10" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9"/>
+      <c r="B10" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C10" s="12"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="60" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="9"/>
+      <c r="B12" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C12" s="10"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
+      <c r="B13" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C13" s="10"/>
+    </row>
+    <row r="14" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="9"/>
+      <c r="B14" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C14" s="10"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="9"/>
+      <c r="B16" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C16" s="10"/>
+    </row>
+    <row r="17" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="9"/>
+      <c r="B17" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C17" s="10"/>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="9"/>
+      <c r="B19" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C19" s="10"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="9"/>
+      <c r="B20" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C20" s="10"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="9"/>
+      <c r="B21" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C21" s="10"/>
+    </row>
+    <row r="22" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="11"/>
+      <c r="B23" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C23" s="10"/>
+    </row>
+    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="9"/>
+      <c r="B25" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C25" s="10"/>
+    </row>
+    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="9"/>
+      <c r="B26" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C26" s="10"/>
+    </row>
+    <row r="27" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="9"/>
+      <c r="B28" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C28" s="10"/>
+    </row>
+    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="9"/>
+      <c r="B29" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C29" s="10"/>
+    </row>
+    <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="9"/>
+      <c r="B30" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C30" s="10"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="9"/>
+      <c r="B32" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C32" s="10"/>
+    </row>
+    <row r="33" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="9"/>
+      <c r="B34" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C34" s="10"/>
+    </row>
+    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="9"/>
+      <c r="B35" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C35" s="10"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="9"/>
+      <c r="B36" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C36" s="10"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="9"/>
+      <c r="B38" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C38" s="10"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C52" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B58" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="3" t="s">
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B59" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="60" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B60" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="3" t="s">
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B61" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="165" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="90" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="1" t="s">
-        <v>80</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C15">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Eric Sorgalla"/>
-        <filter val="Florian Schmitt"/>
-        <filter val="Michael Hein"/>
-        <filter val="Sebastian Kiepsch"/>
-        <filter val="Victor Fuchs"/>
-      </filters>
-    </filterColumn>
+  <autoFilter ref="A1:C18">
     <sortState ref="A2:C11">
       <sortCondition ref="A1:A11"/>
     </sortState>
   </autoFilter>
+  <mergeCells count="24">
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A33:A36"/>
+    <mergeCell ref="C33:C36"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="C8:C10"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Dokumentation/Vorbetrachtung_Übersichten.xlsx
+++ b/Dokumentation/Vorbetrachtung_Übersichten.xlsx
@@ -14,7 +14,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Funktionen!$A$1:$F$7</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Ist-Analyse'!$A$1:$C$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Ist-Analyse'!$A$1:$C$50</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Soll-Analyse'!$A$1:$F$15</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="174">
   <si>
     <t>Funktion</t>
   </si>
@@ -290,9 +290,6 @@
     <t>Design</t>
   </si>
   <si>
-    <t>Entwickler</t>
-  </si>
-  <si>
     <t>Daniel Sawadenko</t>
   </si>
   <si>
@@ -558,13 +555,25 @@
   </si>
   <si>
     <t>Florian Graupeter wird bei den Designern im logischen Design mitwirken.</t>
+  </si>
+  <si>
+    <t>VBA Kenntnisse aus Beruf und Uni</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Datenbankkenntnisse (MS Access)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kenntnisse der UML Erstellung</t>
+  </si>
+  <si>
+    <t>Daniel Sawadenko wird aufgrund seiner Fähigkeiten im Team Design arbeiten.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -578,8 +587,16 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -588,18 +605,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -607,11 +618,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -622,34 +648,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1100,120 +1134,120 @@
     <col min="4" max="4" width="57.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:10" s="6" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="6">
         <v>1</v>
       </c>
-      <c r="J3" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="J3" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="7" t="s">
+      <c r="D4" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E4" s="6">
+        <v>1</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="E4" s="7">
+      <c r="B5" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="6">
         <v>1</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="B5" s="7" t="s">
+      <c r="F5" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="7">
-        <v>1</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B7" t="s">
         <v>42</v>
@@ -1230,13 +1264,13 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B8" t="s">
         <v>46</v>
       </c>
       <c r="C8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D8" t="s">
         <v>47</v>
@@ -1245,35 +1279,35 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="B9" s="7" t="s">
+    <row r="9" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="E9" s="7">
+      <c r="C9" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E9" s="6">
         <v>1</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="6" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B10" t="s">
         <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1304,40 +1338,40 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+    <row r="13" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="E13" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="E13" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>113</v>
+      <c r="C14" s="6" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B15" t="s">
         <v>31</v>
       </c>
       <c r="D15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -1361,117 +1395,117 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" t="s">
         <v>101</v>
-      </c>
-      <c r="C11" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B18" t="s">
         <v>81</v>
@@ -1479,28 +1513,28 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B22" t="s">
         <v>81</v>
@@ -1508,18 +1542,18 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1529,417 +1563,428 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C61"/>
+  <dimension ref="A1:C59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A38"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="A1:C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="44.140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="37.85546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="37.85546875" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="9" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="11"/>
+      <c r="B3" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" s="13"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="11"/>
+      <c r="B4" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="13"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
+      <c r="B5" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="13"/>
+    </row>
+    <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="11"/>
+      <c r="B7" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C3" s="10"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C4" s="10"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C5" s="10"/>
-    </row>
-    <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="C7" s="14"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C8" s="14" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="B7" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C7" s="12"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B8" s="3" t="s">
+    <row r="9" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
+      <c r="B9" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C9" s="14"/>
+    </row>
+    <row r="10" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="11"/>
+      <c r="B10" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="C10" s="14"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="11"/>
+      <c r="B12" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C12" s="13"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+      <c r="B13" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="C13" s="13"/>
+    </row>
+    <row r="14" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
+      <c r="B14" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="C14" s="13"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
+      <c r="B16" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C16" s="13"/>
+    </row>
+    <row r="17" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+      <c r="B17" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="C17" s="13"/>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
+      <c r="B19" s="12" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C9" s="12"/>
-    </row>
-    <row r="10" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-      <c r="B10" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C10" s="12"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C12" s="10"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C13" s="10"/>
-    </row>
-    <row r="14" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C14" s="10"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C16" s="10"/>
-    </row>
-    <row r="17" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C17" s="10"/>
-    </row>
-    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C18" s="10" t="s">
+      <c r="C19" s="13"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="11"/>
+      <c r="B20" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C20" s="13"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="11"/>
+      <c r="B21" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="C21" s="13"/>
+    </row>
+    <row r="22" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="12" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="B19" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C19" s="10"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-      <c r="B20" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C20" s="10"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
-      <c r="B21" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C21" s="10"/>
-    </row>
-    <row r="22" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" s="3" t="s">
+      <c r="C22" s="13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="15"/>
+      <c r="B23" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="C22" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
-      <c r="B23" s="3" t="s">
+      <c r="C23" s="13"/>
+    </row>
+    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="11"/>
+      <c r="B25" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="C23" s="10"/>
-    </row>
-    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B24" s="3" t="s">
+      <c r="C25" s="13"/>
+    </row>
+    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="11"/>
+      <c r="B26" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C26" s="13"/>
+    </row>
+    <row r="27" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="12" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
-      <c r="B25" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C25" s="10"/>
-    </row>
-    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
-      <c r="B26" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C26" s="10"/>
-    </row>
-    <row r="27" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B27" s="3" t="s">
+      <c r="C27" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="11"/>
+      <c r="B28" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="C27" s="10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
-      <c r="B28" s="3" t="s">
+      <c r="C28" s="13"/>
+    </row>
+    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="11"/>
+      <c r="B29" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="C28" s="10"/>
-    </row>
-    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="9"/>
-      <c r="B29" s="3" t="s">
+      <c r="C29" s="13"/>
+    </row>
+    <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="11"/>
+      <c r="B30" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="C29" s="10"/>
-    </row>
-    <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="9"/>
-      <c r="B30" s="3" t="s">
+      <c r="C30" s="13"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="C30" s="10"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B31" s="1" t="s">
+      <c r="C31" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="11"/>
+      <c r="B32" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="C31" s="10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="9"/>
-      <c r="B32" s="1" t="s">
+      <c r="C32" s="13"/>
+    </row>
+    <row r="33" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B33" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="C32" s="10"/>
-    </row>
-    <row r="33" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="B33" s="3" t="s">
+      <c r="C33" s="13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="11"/>
+      <c r="B34" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C34" s="13"/>
+    </row>
+    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="11"/>
+      <c r="B35" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="C35" s="13"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="11"/>
+      <c r="B36" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="C36" s="13"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B37" s="12" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="9"/>
-      <c r="B34" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C34" s="10"/>
-    </row>
-    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="9"/>
-      <c r="B35" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C35" s="10"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="9"/>
-      <c r="B36" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C36" s="10"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="B37" s="3" t="s">
+      <c r="C37" s="13" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="11"/>
+      <c r="B38" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C38" s="13"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B39" s="17" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="9"/>
-      <c r="B38" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C38" s="10"/>
+      <c r="C39" s="13" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="11"/>
+      <c r="B40" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="C40" s="13"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="11"/>
+      <c r="B41" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="C41" s="13"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C40" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C52" s="5" t="s">
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C50" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="6" t="s">
         <v>71</v>
       </c>
+      <c r="B56" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B57" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B58" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B59" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B60" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B61" s="3" t="s">
         <v>70</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C18">
-    <sortState ref="A2:C11">
-      <sortCondition ref="A1:A11"/>
-    </sortState>
-  </autoFilter>
-  <mergeCells count="24">
+  <mergeCells count="26">
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="C27:C30"/>
     <mergeCell ref="C37:C38"/>
     <mergeCell ref="A37:A38"/>
     <mergeCell ref="C31:C32"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A33:A36"/>
     <mergeCell ref="C33:C36"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="C8:C10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Dokumentation/Vorbetrachtung_Übersichten.xlsx
+++ b/Dokumentation/Vorbetrachtung_Übersichten.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="178">
   <si>
     <t>Funktion</t>
   </si>
@@ -238,9 +238,6 @@
     <t>Thomas Elias</t>
   </si>
   <si>
-    <t>Team dementsprechend</t>
-  </si>
-  <si>
     <t>Übersicht von Markus anfügen</t>
   </si>
   <si>
@@ -567,6 +564,21 @@
   </si>
   <si>
     <t>Daniel Sawadenko wird aufgrund seiner Fähigkeiten im Team Design arbeiten.</t>
+  </si>
+  <si>
+    <t>Scrum - Product Owner</t>
+  </si>
+  <si>
+    <t>Mobile Device Management</t>
+  </si>
+  <si>
+    <t>Software-Entwicklung</t>
+  </si>
+  <si>
+    <t>Florian Schmitt arbeitet bei den Entwicklern aufgrund seiner Erfahrung im Bereich Software-Entwicklung</t>
+  </si>
+  <si>
+    <t>Teamzuordnung</t>
   </si>
 </sst>
 </file>
@@ -666,10 +678,14 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -680,10 +696,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1188,38 +1200,38 @@
         <v>1</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>31</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E4" s="6">
         <v>1</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>36</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>39</v>
@@ -1228,7 +1240,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -1247,7 +1259,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B7" t="s">
         <v>42</v>
@@ -1264,13 +1276,13 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B8" t="s">
         <v>46</v>
       </c>
       <c r="C8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D8" t="s">
         <v>47</v>
@@ -1281,16 +1293,16 @@
     </row>
     <row r="9" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>31</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E9" s="6">
         <v>1</v>
@@ -1301,13 +1313,13 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B10" t="s">
         <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1340,13 +1352,13 @@
     </row>
     <row r="13" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>31</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E13" s="6">
         <v>1</v>
@@ -1354,24 +1366,24 @@
     </row>
     <row r="14" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>36</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B15" t="s">
         <v>31</v>
       </c>
       <c r="D15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -1395,165 +1407,165 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" t="s">
         <v>100</v>
-      </c>
-      <c r="C11" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1565,8 +1577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="A1:C41"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1584,381 +1596,420 @@
         <v>54</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>65</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="14"/>
+      <c r="B3" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" s="15"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="14"/>
+      <c r="B4" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" s="15"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="14"/>
+      <c r="B5" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5" s="15"/>
+    </row>
+    <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="14"/>
+      <c r="B7" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C7" s="16"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14"/>
+      <c r="B9" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C9" s="16"/>
+    </row>
+    <row r="10" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="14"/>
+      <c r="B10" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C10" s="16"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C11" s="15" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C3" s="13"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="C4" s="13"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="C5" s="13"/>
-    </row>
-    <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="C7" s="14"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="C8" s="14" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="14"/>
+      <c r="B12" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C12" s="15"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="14"/>
+      <c r="B13" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C13" s="15"/>
+    </row>
+    <row r="14" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+      <c r="B14" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="C14" s="15"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="14"/>
+      <c r="B16" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C16" s="15"/>
+    </row>
+    <row r="17" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="14"/>
+      <c r="B17" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="C17" s="15"/>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="14"/>
+      <c r="B19" s="11" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="C9" s="14"/>
-    </row>
-    <row r="10" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="C10" s="14"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="C11" s="13" t="s">
+      <c r="C19" s="15"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="14"/>
+      <c r="B20" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C20" s="15"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="14"/>
+      <c r="B21" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="C21" s="15"/>
+    </row>
+    <row r="22" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="17"/>
+      <c r="B23" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="C23" s="15"/>
+    </row>
+    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="14"/>
+      <c r="B25" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="C25" s="15"/>
+    </row>
+    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="14"/>
+      <c r="B26" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="C26" s="15"/>
+    </row>
+    <row r="27" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="14"/>
+      <c r="B28" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="C28" s="15"/>
+    </row>
+    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="14"/>
+      <c r="B29" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C29" s="15"/>
+    </row>
+    <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="14"/>
+      <c r="B30" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="C30" s="15"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C31" s="15" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="12" t="s">
+    <row r="32" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="14"/>
+      <c r="B32" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="C32" s="15"/>
+    </row>
+    <row r="33" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="14"/>
+      <c r="B34" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="C34" s="15"/>
+    </row>
+    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="14"/>
+      <c r="B35" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="C35" s="15"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="14"/>
+      <c r="B36" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="C36" s="15"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="14"/>
+      <c r="B38" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="C38" s="15"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="14"/>
+      <c r="B40" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="C40" s="15"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="14"/>
+      <c r="B41" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="C41" s="15"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="14"/>
+      <c r="B43" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="C43" s="15"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="14"/>
+      <c r="B44" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="C44" s="15"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="14"/>
+      <c r="B45" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="C12" s="13"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="C13" s="13"/>
-    </row>
-    <row r="14" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="C14" s="13"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="C16" s="13"/>
-    </row>
-    <row r="17" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="C17" s="13"/>
-    </row>
-    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
-      <c r="B19" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="C19" s="13"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-      <c r="B20" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="C20" s="13"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
-      <c r="B21" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="C21" s="13"/>
-    </row>
-    <row r="22" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
-      <c r="B23" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="C23" s="13"/>
-    </row>
-    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
-      <c r="B25" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="C25" s="13"/>
-    </row>
-    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="11"/>
-      <c r="B26" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="C26" s="13"/>
-    </row>
-    <row r="27" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="11"/>
-      <c r="B28" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C28" s="13"/>
-    </row>
-    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="11"/>
-      <c r="B29" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="C29" s="13"/>
-    </row>
-    <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="11"/>
-      <c r="B30" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="C30" s="13"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="B31" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="11"/>
-      <c r="B32" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="C32" s="13"/>
-    </row>
-    <row r="33" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="11"/>
-      <c r="B34" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="C34" s="13"/>
-    </row>
-    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="11"/>
-      <c r="B35" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="C35" s="13"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="11"/>
-      <c r="B36" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="C36" s="13"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="B37" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="C37" s="13" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="11"/>
-      <c r="B38" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="C38" s="13"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="B39" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="C39" s="13" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="11"/>
-      <c r="B40" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="C40" s="13"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="11"/>
-      <c r="B41" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="C41" s="13"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
-        <v>80</v>
-      </c>
+      <c r="C45" s="15"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C50" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B57" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B58" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B59" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="28">
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A33:A36"/>
+    <mergeCell ref="C33:C36"/>
     <mergeCell ref="A39:A41"/>
     <mergeCell ref="C39:C41"/>
     <mergeCell ref="A2:A5"/>
@@ -1975,16 +2026,6 @@
     <mergeCell ref="C18:C21"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="C22:C23"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A33:A36"/>
-    <mergeCell ref="C33:C36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
